--- a/bh3/507089703268659163_2021-03-28_12-07-02.xlsx
+++ b/bh3/507089703268659163_2021-03-28_12-07-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -544,10 +560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-04-22 10:59:41</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44308.45811342593</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -622,10 +636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-04-16 18:19:58</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44302.76386574074</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -697,10 +709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-29 10:05:15</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44284.4203125</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -777,10 +787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:44:52</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44283.94782407407</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -840,10 +848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-28 21:19:58</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44283.88886574074</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
@@ -915,10 +921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-28 21:14:04</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44283.88476851852</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -982,10 +986,8 @@
           <t>4328463200</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:09:38</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44283.84002314815</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1053,10 +1055,8 @@
           <t>4330055346</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:56:16</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44283.83074074074</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
@@ -1132,10 +1132,8 @@
           <t>4329577364</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:42:23</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44283.82109953704</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1211,10 +1209,8 @@
           <t>4328463200</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:40:49</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44283.7783449074</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
@@ -1290,10 +1286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:39:08</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44283.77717592593</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1362,10 +1356,8 @@
           <t>4329577364</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:13:13</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44283.75917824074</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1441,10 +1433,8 @@
           <t>4329358828</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-28 17:25:18</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44283.72590277778</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1508,10 +1498,8 @@
           <t>4328463200</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:41:05</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44283.69519675926</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
@@ -1583,10 +1571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:16:04</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44283.67782407408</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1662,10 +1648,8 @@
           <t>4328463200</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:10:32</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44283.67398148148</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1729,10 +1713,8 @@
           <t>4328055457</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:05:01</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44283.67015046296</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1808,10 +1790,8 @@
           <t>4328055457</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-28 16:00:51</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44283.66725694444</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1887,10 +1867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:49:40</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44283.65949074074</v>
       </c>
       <c r="I20" t="n">
         <v>3</v>
@@ -1967,10 +1945,8 @@
           <t>4328934617</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:45:22</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44283.65650462963</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2042,10 +2018,8 @@
           <t>4328152619</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:25:42</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44283.64284722223</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -2121,10 +2095,8 @@
           <t>4328763086</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:02:04</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44283.62643518519</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2192,10 +2164,8 @@
           <t>4328463200</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-28 15:00:40</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44283.62546296296</v>
       </c>
       <c r="I24" t="n">
         <v>5</v>
@@ -2263,10 +2233,8 @@
           <t>4328055457</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:57:38</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44283.62335648148</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2342,10 +2310,8 @@
           <t>4328727541</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:52:34</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44283.61983796296</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2409,10 +2375,8 @@
           <t>4328055457</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:44:59</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44283.61457175926</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2488,10 +2452,8 @@
           <t>4328055457</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:31:06</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44283.60493055556</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -2568,10 +2530,8 @@
           <t>4328629509</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:29:10</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44283.60358796296</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2639,10 +2599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:24:05</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44283.60005787037</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2710,10 +2668,8 @@
           <t>4328152619</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:23:26</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44283.59960648148</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2785,10 +2741,8 @@
           <t>4328575350</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:14:18</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44283.59326388889</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2856,10 +2810,8 @@
           <t>4328214874</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:12:42</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44283.59215277778</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2923,10 +2875,8 @@
           <t>4328181074</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:09:47</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44283.59012731481</v>
       </c>
       <c r="I34" t="n">
         <v>2</v>
@@ -3002,10 +2952,8 @@
           <t>4328055457</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:07:35</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44283.58859953703</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3081,10 +3029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-28 14:01:27</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44283.58434027778</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3160,10 +3106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:50:37</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44283.57681712963</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3235,10 +3179,8 @@
           <t>4328463200</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:48:53</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44283.57561342593</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -3314,10 +3256,8 @@
           <t>4328101011</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:48:44</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44283.57550925926</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3385,10 +3325,8 @@
           <t>4328266385</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:44:24</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44283.5725</v>
       </c>
       <c r="I40" t="n">
         <v>3</v>
@@ -3460,10 +3398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:39:50</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44283.56932870371</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3531,10 +3467,8 @@
           <t>4328159494</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:37:51</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44283.56795138889</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3603,10 +3537,8 @@
           <t>4328410226</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:36:36</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44283.56708333334</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -3675,10 +3607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:33:07</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44283.56466435185</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3750,10 +3680,8 @@
           <t>4328159494</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:32:16</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44283.56407407407</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3817,10 +3745,8 @@
           <t>4328383544</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:32:16</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44283.56407407407</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3884,10 +3810,8 @@
           <t>4328159494</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:28:46</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44283.56164351852</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3956,10 +3880,8 @@
           <t>4328055457</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:28:31</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44283.56146990741</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4035,10 +3957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:26:39</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44283.56017361111</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4106,10 +4026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:22:28</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44283.55726851852</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4188,10 +4106,8 @@
           <t>4328316784</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:21:46</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44283.55678240741</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4255,10 +4171,8 @@
           <t>4328159494</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:20:46</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44283.55608796296</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4322,10 +4236,8 @@
           <t>4328159494</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:18:45</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44283.5546875</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4389,10 +4301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:18:00</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44283.55416666667</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4468,10 +4378,8 @@
           <t>4328309654</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:16:54</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44283.55340277778</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4543,10 +4451,8 @@
           <t>4328159494</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:16:12</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44283.55291666667</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4615,10 +4521,8 @@
           <t>4328178966</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:16:03</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44283.5528125</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -4694,10 +4598,8 @@
           <t>4328316784</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:15:42</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44283.55256944444</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4761,10 +4663,8 @@
           <t>4328294422</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:15:28</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44283.55240740741</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4828,10 +4728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:14:48</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44283.55194444444</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4891,10 +4789,8 @@
           <t>4328181074</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:14:06</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44283.55145833334</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4966,10 +4862,8 @@
           <t>4328294422</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:13:41</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44283.55116898148</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5033,10 +4927,8 @@
           <t>4328298746</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:13:39</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44283.55114583333</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -5096,10 +4988,8 @@
           <t>4328146479</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:13:24</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44283.55097222222</v>
       </c>
       <c r="I64" t="n">
         <v>5</v>
@@ -5171,10 +5061,8 @@
           <t>4328284337</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:11:00</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44283.54930555556</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5250,10 +5138,8 @@
           <t>4328274866</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:09:11</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44283.54804398148</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5317,10 +5203,8 @@
           <t>4328059175</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:08:56</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44283.54787037037</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5388,10 +5272,8 @@
           <t>4328274866</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:08:32</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44283.54759259259</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5455,10 +5337,8 @@
           <t>4328225562</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:07:19</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44283.54674768518</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5522,10 +5402,8 @@
           <t>4328266385</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:06:18</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44283.54604166667</v>
       </c>
       <c r="I70" t="n">
         <v>8</v>
@@ -5601,10 +5479,8 @@
           <t>4328266123</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:06:09</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44283.5459375</v>
       </c>
       <c r="I71" t="n">
         <v>4</v>
@@ -5680,10 +5556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:05:46</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44283.5456712963</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -5755,10 +5629,8 @@
           <t>4328156319</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:05:11</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44283.54526620371</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5830,10 +5702,8 @@
           <t>4328225562</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:04:56</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44283.54509259259</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5897,10 +5767,8 @@
           <t>4328225562</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:04:30</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44283.54479166667</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5964,10 +5832,8 @@
           <t>4328225562</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:04:23</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44283.54471064815</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6031,10 +5897,8 @@
           <t>4328248855</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:04:05</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44283.54450231481</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6110,10 +5974,8 @@
           <t>4328156319</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:03:54</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44283.544375</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6177,10 +6039,8 @@
           <t>4328156319</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:03:34</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44283.54414351852</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6252,10 +6112,8 @@
           <t>4328225562</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:03:12</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44283.54388888889</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6319,10 +6177,8 @@
           <t>4328156319</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:03:04</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44283.5437962963</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6394,10 +6250,8 @@
           <t>4328225562</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:02:27</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44283.54336805556</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6461,10 +6315,8 @@
           <t>4328156319</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:02:06</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44283.543125</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6528,10 +6380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:02:05</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44283.54311342593</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -6607,10 +6457,8 @@
           <t>4328225562</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:01:43</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44283.5428587963</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6674,10 +6522,8 @@
           <t>4328225562</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:01:30</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44283.54270833333</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6741,10 +6587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-28 13:00:48</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44283.54222222222</v>
       </c>
       <c r="I87" t="n">
         <v>4</v>
@@ -6812,10 +6656,8 @@
           <t>4328225562</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:59:23</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44283.54123842593</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6879,10 +6721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:58:47</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44283.54082175926</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6946,10 +6786,8 @@
           <t>4328156319</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:58:26</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44283.5405787037</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7021,10 +6859,8 @@
           <t>4328225562</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:58:09</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44283.54038194445</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7088,10 +6924,8 @@
           <t>4328076314</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:57:20</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44283.53981481482</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7163,10 +6997,8 @@
           <t>4328225562</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:57:13</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44283.53973379629</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7230,10 +7062,8 @@
           <t>4328214874</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:56:48</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44283.53944444445</v>
       </c>
       <c r="I94" t="n">
         <v>9</v>
@@ -7310,10 +7140,8 @@
           <t>4328220085</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:56:48</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44283.53944444445</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7377,10 +7205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:56:13</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44283.53903935185</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7456,10 +7282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:56:07</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44283.53896990741</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7535,10 +7359,8 @@
           <t>4328165927</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:54:45</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44283.53802083333</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7602,10 +7424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:54:24</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44283.53777777778</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7669,10 +7489,8 @@
           <t>4328181074</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:53:24</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44283.53708333334</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7736,10 +7554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:53:02</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44283.53682870371</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -7816,10 +7632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:52:28</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44283.53643518518</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7887,10 +7701,8 @@
           <t>4328165927</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:51:38</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44283.53585648148</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7958,10 +7770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:51:04</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44283.53546296297</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8033,10 +7843,8 @@
           <t>4328008473</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:50:37</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44283.53515046297</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8108,10 +7916,8 @@
           <t>4328178966</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:50:18</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44283.53493055556</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8187,10 +7993,8 @@
           <t>4328077043</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:49:21</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44283.53427083333</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8262,10 +8066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:49:00</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44283.53402777778</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8342,10 +8144,8 @@
           <t>4328181334</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:48:55</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44283.53396990741</v>
       </c>
       <c r="I109" t="n">
         <v>8</v>
@@ -8421,10 +8221,8 @@
           <t>4328181074</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:48:45</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44283.53385416666</v>
       </c>
       <c r="I110" t="n">
         <v>4</v>
@@ -8496,10 +8294,8 @@
           <t>4328152360</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:48:24</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44283.53361111111</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8575,10 +8371,8 @@
           <t>4328165927</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:48:09</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44283.5334375</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8642,10 +8436,8 @@
           <t>4328159494</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:47:46</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44283.53317129629</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8709,10 +8501,8 @@
           <t>4328059175</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:46:50</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44283.53252314815</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8784,10 +8574,8 @@
           <t>4328136863</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:46:44</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44283.5324537037</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8851,10 +8639,8 @@
           <t>4328159494</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:46:40</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44283.53240740741</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8923,10 +8709,8 @@
           <t>4328152360</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:46:22</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44283.53219907408</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8990,10 +8774,8 @@
           <t>4328156319</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:46:02</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44283.53196759259</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -9057,10 +8839,8 @@
           <t>4328165927</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:45:48</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44283.53180555555</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9128,10 +8908,8 @@
           <t>4328165860</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:45:46</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44283.53178240741</v>
       </c>
       <c r="I120" t="n">
         <v>2</v>
@@ -9199,10 +8977,8 @@
           <t>4328094847</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:45:23</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44283.5315162037</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9271,10 +9047,8 @@
           <t>4328156319</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:44:52</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44283.53115740741</v>
       </c>
       <c r="I122" t="n">
         <v>3</v>
@@ -9346,10 +9120,8 @@
           <t>4328156156</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:44:46</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44283.53108796296</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -9417,10 +9189,8 @@
           <t>4328059175</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:44:34</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44283.53094907408</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9488,10 +9258,8 @@
           <t>4328153009</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:44:08</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44283.53064814815</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9559,10 +9327,8 @@
           <t>4328148051</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:44:04</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44283.53060185185</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9627,10 +9393,8 @@
           <t>4328152619</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:43:56</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44283.53050925926</v>
       </c>
       <c r="I127" t="n">
         <v>6</v>
@@ -9706,10 +9470,8 @@
           <t>4328152360</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:43:47</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44283.53040509259</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9785,10 +9547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:43:42</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44283.53034722222</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -9865,10 +9625,8 @@
           <t>4328146479</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:43:12</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44283.53</v>
       </c>
       <c r="I130" t="n">
         <v>6</v>
@@ -9944,10 +9702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:42:27</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44283.52947916667</v>
       </c>
       <c r="I131" t="n">
         <v>2</v>
@@ -10019,10 +9775,8 @@
           <t>4328101011</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:42:16</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44283.52935185185</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10094,10 +9848,8 @@
           <t>4328141792</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:42:12</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44283.52930555555</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -10173,10 +9925,8 @@
           <t>4328077043</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:40:51</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44283.52836805556</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10252,10 +10002,8 @@
           <t>4328136863</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:40:43</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44283.52827546297</v>
       </c>
       <c r="I135" t="n">
         <v>6</v>
@@ -10320,10 +10068,8 @@
           <t>4328055457</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:40:07</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44283.5278587963</v>
       </c>
       <c r="I136" t="n">
         <v>2</v>
@@ -10399,10 +10145,8 @@
           <t>4328064463</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:39:57</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44283.52774305556</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10474,10 +10218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:39:44</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44283.5275925926</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10553,10 +10295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:39:25</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44283.52737268519</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10628,10 +10368,8 @@
           <t>4328041654</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:39:24</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44283.52736111111</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -10699,10 +10437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:39:12</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44283.52722222222</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10766,10 +10502,8 @@
           <t>4328119367</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:39:07</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44283.52716435185</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10829,10 +10563,8 @@
           <t>4328126031</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:38:52</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44283.52699074074</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10904,10 +10636,8 @@
           <t>4328101011</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:37:53</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44283.52630787037</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10983,10 +10713,8 @@
           <t>4328112217</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:37:39</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44283.52614583333</v>
       </c>
       <c r="I145" t="n">
         <v>4</v>
@@ -11062,10 +10790,8 @@
           <t>4328120011</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:36:54</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44283.525625</v>
       </c>
       <c r="I146" t="n">
         <v>5</v>
@@ -11133,10 +10859,8 @@
           <t>4328112217</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:36:35</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44283.52540509259</v>
       </c>
       <c r="I147" t="n">
         <v>23</v>
@@ -11204,10 +10928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:36:14</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44283.52516203704</v>
       </c>
       <c r="I148" t="n">
         <v>23</v>
@@ -11275,10 +10997,8 @@
           <t>4328102307</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:35:11</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44283.52443287037</v>
       </c>
       <c r="I149" t="n">
         <v>3</v>
@@ -11339,10 +11059,8 @@
           <t>4328106947</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:35:09</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44283.52440972222</v>
       </c>
       <c r="I150" t="n">
         <v>2</v>
@@ -11414,10 +11132,8 @@
           <t>4328101664</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:34:49</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44283.52417824074</v>
       </c>
       <c r="I151" t="n">
         <v>3</v>
@@ -11477,10 +11193,8 @@
           <t>4328101011</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:34:27</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44283.52392361111</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11548,10 +11262,8 @@
           <t>4328094847</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:33:58</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44283.52358796296</v>
       </c>
       <c r="I153" t="n">
         <v>4</v>
@@ -11611,10 +11323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:33:48</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44283.52347222222</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -11682,10 +11392,8 @@
           <t>4328093448</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:33:11</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44283.52304398148</v>
       </c>
       <c r="I155" t="n">
         <v>9</v>
@@ -11761,10 +11469,8 @@
           <t>4328055457</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:33:10</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44283.52303240741</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11840,10 +11546,8 @@
           <t>4328041654</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:32:52</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44283.52282407408</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11908,10 +11612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:32:48</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44283.52277777778</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11987,10 +11689,8 @@
           <t>4328087975</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:32:44</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44283.52273148148</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12054,10 +11754,8 @@
           <t>4328084937</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:32:26</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44283.52252314815</v>
       </c>
       <c r="I160" t="n">
         <v>11</v>
@@ -12129,10 +11827,8 @@
           <t>4328086821</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:32:03</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44283.52225694444</v>
       </c>
       <c r="I161" t="n">
         <v>5</v>
@@ -12200,10 +11896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:31:01</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44283.52153935185</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12279,10 +11973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:31:01</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44283.52153935185</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12358,10 +12050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:30:10</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44283.52094907407</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12438,10 +12128,8 @@
           <t>4328080993</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:30:09</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44283.5209375</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12513,10 +12201,8 @@
           <t>4328072981</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:29:53</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44283.52075231481</v>
       </c>
       <c r="I166" t="n">
         <v>5</v>
@@ -12584,10 +12270,8 @@
           <t>4328080408</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:29:49</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44283.52070601852</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
@@ -12651,10 +12335,8 @@
           <t>4328077043</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:29:38</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44283.5205787037</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12726,10 +12408,8 @@
           <t>4328041654</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:29:25</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44283.52042824074</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12797,10 +12477,8 @@
           <t>4328076575</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:29:22</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44283.52039351852</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -12864,10 +12542,8 @@
           <t>4328076314</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:29:13</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44283.52028935185</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -12935,10 +12611,8 @@
           <t>4328071569</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:29:08</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44283.52023148148</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -13006,10 +12680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:28:59</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44283.52012731481</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13085,10 +12757,8 @@
           <t>4328068373</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:28:37</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44283.51987268519</v>
       </c>
       <c r="I174" t="n">
         <v>2</v>
@@ -13165,10 +12835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:28:28</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44283.51976851852</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13233,10 +12901,8 @@
           <t>4328055457</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:28:26</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44283.51974537037</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13312,10 +12978,8 @@
           <t>4328027508</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:28:18</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44283.51965277778</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13383,10 +13047,8 @@
           <t>4328059917</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:28:13</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44283.5195949074</v>
       </c>
       <c r="I178" t="n">
         <v>11</v>
@@ -13450,10 +13112,8 @@
           <t>4328064463</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:28:12</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44283.51958333333</v>
       </c>
       <c r="I179" t="n">
         <v>4</v>
@@ -13521,10 +13181,8 @@
           <t>4328064390</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:28:09</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44283.51954861111</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13600,10 +13258,8 @@
           <t>4328059175</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:27:48</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44283.51930555556</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -13675,10 +13331,8 @@
           <t>4328063636</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:27:43</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44283.51924768519</v>
       </c>
       <c r="I182" t="n">
         <v>3</v>
@@ -13742,10 +13396,8 @@
           <t>4328058979</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:27:42</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44283.51923611111</v>
       </c>
       <c r="I183" t="n">
         <v>3</v>
@@ -13817,10 +13469,8 @@
           <t>4328066692</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:27:39</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44283.51920138889</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -13892,10 +13542,8 @@
           <t>4328058298</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:27:19</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44283.51896990741</v>
       </c>
       <c r="I185" t="n">
         <v>1</v>
@@ -13971,10 +13619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:27:00</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44283.51875</v>
       </c>
       <c r="I186" t="n">
         <v>1</v>
@@ -14050,10 +13696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:26:54</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44283.51868055556</v>
       </c>
       <c r="I187" t="n">
         <v>57</v>
@@ -14129,10 +13773,8 @@
           <t>4328056433</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:26:15</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44283.51822916666</v>
       </c>
       <c r="I188" t="n">
         <v>6</v>
@@ -14204,10 +13846,8 @@
           <t>4328055457</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:25:44</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44283.51787037037</v>
       </c>
       <c r="I189" t="n">
         <v>6</v>
@@ -14283,10 +13923,8 @@
           <t>4328044478</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:25:10</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44283.51747685186</v>
       </c>
       <c r="I190" t="n">
         <v>2</v>
@@ -14358,10 +13996,8 @@
           <t>4328027508</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:25:09</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44283.51746527778</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14433,10 +14069,8 @@
           <t>4328044392</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:25:06</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44283.51743055556</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -14504,10 +14138,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:24:28</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44283.51699074074</v>
       </c>
       <c r="I193" t="n">
         <v>147</v>
@@ -14584,10 +14216,8 @@
           <t>4328041654</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:23:35</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44283.51637731482</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14651,10 +14281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:23:23</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44283.51623842592</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14714,10 +14342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:23:16</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44283.51615740741</v>
       </c>
       <c r="I196" t="n">
         <v>20</v>
@@ -14789,10 +14415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:23:05</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44283.51603009259</v>
       </c>
       <c r="I197" t="n">
         <v>264</v>
@@ -14868,10 +14492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:22:57</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44283.5159375</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14948,10 +14570,8 @@
           <t>4328029749</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:22:31</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44283.51563657408</v>
       </c>
       <c r="I199" t="n">
         <v>4</v>
@@ -15027,10 +14647,8 @@
           <t>4328033436</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:21:54</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44283.51520833333</v>
       </c>
       <c r="I200" t="n">
         <v>4</v>
@@ -15098,10 +14716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:21:42</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44283.51506944445</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15177,10 +14793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:21:20</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44283.51481481481</v>
       </c>
       <c r="I202" t="n">
         <v>5</v>
@@ -15244,10 +14858,8 @@
           <t>4328027508</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:21:13</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44283.5147337963</v>
       </c>
       <c r="I203" t="n">
         <v>5</v>
@@ -15323,10 +14935,8 @@
           <t>4328035722</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:21:12</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44283.51472222222</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15402,10 +15012,8 @@
           <t>4328030783</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:20:23</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44283.51415509259</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15477,10 +15085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:20:22</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44283.51414351852</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15556,10 +15162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:20:16</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44283.51407407408</v>
       </c>
       <c r="I207" t="n">
         <v>4</v>
@@ -15637,10 +15241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:20:13</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44283.51403935185</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15717,10 +15319,8 @@
           <t>4328024009</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:20:10</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44283.51400462963</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15788,10 +15388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:20:01</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44283.51390046296</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15863,10 +15461,8 @@
           <t>4328019814</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:19:49</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44283.51376157408</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -15942,10 +15538,8 @@
           <t>4328013866</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:19:09</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44283.51329861111</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16021,10 +15615,8 @@
           <t>4328017648</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:18:34</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44283.51289351852</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16092,10 +15684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:18:24</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44283.51277777777</v>
       </c>
       <c r="I214" t="n">
         <v>4</v>
@@ -16159,10 +15749,8 @@
           <t>4328011877</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:17:59</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44283.51248842593</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16226,10 +15814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:17:41</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44283.51228009259</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16297,10 +15883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:17:39</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44283.51225694444</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16364,10 +15948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:17:02</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44283.5118287037</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16445,10 +16027,8 @@
           <t>4328004767</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:16:54</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44283.51173611111</v>
       </c>
       <c r="I219" t="n">
         <v>2</v>
@@ -16515,10 +16095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:16:52</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44283.51171296297</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16586,10 +16164,8 @@
           <t>4328008473</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:16:52</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44283.51171296297</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16661,10 +16237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:16:40</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44283.51157407407</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16740,10 +16314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:16:25</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44283.51140046296</v>
       </c>
       <c r="I223" t="n">
         <v>1</v>
@@ -16810,10 +16382,8 @@
           <t>4328003900</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:16:24</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44283.51138888889</v>
       </c>
       <c r="I224" t="n">
         <v>7</v>
@@ -16882,10 +16452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:16:21</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44283.51135416667</v>
       </c>
       <c r="I225" t="n">
         <v>21</v>
@@ -16957,10 +16525,8 @@
           <t>4328005683</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:15:15</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44283.51059027778</v>
       </c>
       <c r="I226" t="n">
         <v>3</v>
@@ -17024,10 +16590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:14:32</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44283.51009259259</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17095,10 +16659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:14:17</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44283.50991898148</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17164,10 +16726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:14:05</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44283.50978009259</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -17243,10 +16803,8 @@
           <t>4327993119</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:13:46</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44283.50956018519</v>
       </c>
       <c r="I230" t="n">
         <v>2</v>
@@ -17310,10 +16868,8 @@
           <t>4327993073</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:13:45</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44283.50954861111</v>
       </c>
       <c r="I231" t="n">
         <v>2</v>
@@ -17389,10 +16945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:13:39</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44283.50947916666</v>
       </c>
       <c r="I232" t="n">
         <v>246</v>
@@ -17468,10 +17022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:13:30</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44283.509375</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17543,10 +17095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:12:51</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44283.50892361111</v>
       </c>
       <c r="I234" t="n">
         <v>29</v>
@@ -17625,10 +17175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:12:49</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44283.50890046296</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17696,10 +17244,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:12:48</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44283.50888888889</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17771,10 +17317,8 @@
           <t>4327990950</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:12:34</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44283.50872685185</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17844,10 +17388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:11:48</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44283.50819444445</v>
       </c>
       <c r="I238" t="n">
         <v>5</v>
@@ -17916,10 +17458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:11:34</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44283.50803240741</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17987,10 +17527,8 @@
           <t>4327980433</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:11:33</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44283.50802083333</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18062,10 +17600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:11:14</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44283.50780092592</v>
       </c>
       <c r="I241" t="n">
         <v>47</v>
@@ -18141,10 +17677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:10:02</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44283.50696759259</v>
       </c>
       <c r="I242" t="n">
         <v>78</v>
@@ -18204,10 +17738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:10:01</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44283.50695601852</v>
       </c>
       <c r="I243" t="n">
         <v>5</v>
@@ -18280,10 +17812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:09:36</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44283.50666666667</v>
       </c>
       <c r="I244" t="n">
         <v>23</v>
@@ -18352,10 +17882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:09:31</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44283.5066087963</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18427,10 +17955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:09:19</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44283.50646990741</v>
       </c>
       <c r="I246" t="n">
         <v>1</v>
@@ -18498,10 +18024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:09:12</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44283.50638888889</v>
       </c>
       <c r="I247" t="n">
         <v>59</v>
@@ -18573,10 +18097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:09:10</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44283.50636574074</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18640,10 +18162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:09:03</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44283.50628472222</v>
       </c>
       <c r="I249" t="n">
         <v>2</v>
@@ -18719,10 +18239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:08:57</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44283.50621527778</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18794,10 +18312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:08:50</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44283.50613425926</v>
       </c>
       <c r="I251" t="n">
         <v>39</v>
@@ -18865,10 +18381,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:08:32</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44283.50592592593</v>
       </c>
       <c r="I252" t="n">
         <v>1</v>
@@ -18936,10 +18450,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:08:28</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44283.50587962963</v>
       </c>
       <c r="I253" t="n">
         <v>3</v>
@@ -19003,10 +18515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:08:14</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44283.50571759259</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19070,10 +18580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:08:12</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44283.50569444444</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19145,10 +18653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:08:07</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44283.50563657407</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19224,10 +18730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:08:03</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44283.50559027777</v>
       </c>
       <c r="I257" t="n">
         <v>1</v>
@@ -19291,10 +18795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:07:53</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44283.50547453704</v>
       </c>
       <c r="I258" t="n">
         <v>4</v>
@@ -19370,10 +18872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:07:53</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44283.50547453704</v>
       </c>
       <c r="I259" t="n">
         <v>2</v>
@@ -19449,10 +18949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:07:52</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44283.50546296296</v>
       </c>
       <c r="I260" t="n">
         <v>2</v>
@@ -19528,10 +19026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:07:50</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44283.50543981481</v>
       </c>
       <c r="I261" t="n">
         <v>1</v>
@@ -19608,10 +19104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:07:47</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44283.50540509259</v>
       </c>
       <c r="I262" t="n">
         <v>21</v>
@@ -19687,10 +19181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:07:47</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44283.50540509259</v>
       </c>
       <c r="I263" t="n">
         <v>2</v>
@@ -19762,10 +19254,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:07:42</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44283.50534722222</v>
       </c>
       <c r="I264" t="n">
         <v>6</v>
@@ -19833,10 +19323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:07:38</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44283.50530092593</v>
       </c>
       <c r="I265" t="n">
         <v>260</v>
@@ -19904,10 +19392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:07:36</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44283.50527777777</v>
       </c>
       <c r="I266" t="n">
         <v>3</v>
@@ -19979,10 +19465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:07:32</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44283.50523148148</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20050,10 +19534,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-28 12:07:29</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44283.50519675926</v>
       </c>
       <c r="I268" t="n">
         <v>1</v>
